--- a/PhoenixCI/Excel_Template/30730.xlsx
+++ b/PhoenixCI/Excel_Template/30730.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\PhoenixCI_TFS\PhoenixCI_Kj\PhoenixCI\Excel_Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KJSOFT\Desktop\update_template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{503C2050-D8D5-4707-B3CF-366E84169EBF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4CC215F4-6E2C-4B34-9A45-C0BB454C7E48}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="480" yWindow="90" windowWidth="6765" windowHeight="4245"/>
   </bookViews>
   <sheets>
     <sheet name="30730" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -111,7 +110,6 @@
       <rPr>
         <sz val="12"/>
         <rFont val="新細明體"/>
-        <family val="1"/>
         <charset val="136"/>
       </rPr>
       <t>1</t>
@@ -120,7 +118,6 @@
       <rPr>
         <sz val="12"/>
         <rFont val="新細明體"/>
-        <family val="1"/>
         <charset val="136"/>
       </rPr>
       <t>)/(6)</t>
@@ -135,7 +132,6 @@
       <rPr>
         <sz val="12"/>
         <rFont val="新細明體"/>
-        <family val="1"/>
         <charset val="136"/>
       </rPr>
       <t>2</t>
@@ -144,7 +140,6 @@
       <rPr>
         <sz val="12"/>
         <rFont val="新細明體"/>
-        <family val="1"/>
         <charset val="136"/>
       </rPr>
       <t>)+(3)]/(6)</t>
@@ -159,7 +154,6 @@
       <rPr>
         <sz val="12"/>
         <rFont val="新細明體"/>
-        <family val="1"/>
         <charset val="136"/>
       </rPr>
       <t>1</t>
@@ -168,7 +162,6 @@
       <rPr>
         <sz val="12"/>
         <rFont val="新細明體"/>
-        <family val="1"/>
         <charset val="136"/>
       </rPr>
       <t>)+(</t>
@@ -177,7 +170,6 @@
       <rPr>
         <sz val="12"/>
         <rFont val="新細明體"/>
-        <family val="1"/>
         <charset val="136"/>
       </rPr>
       <t>5</t>
@@ -186,7 +178,6 @@
       <rPr>
         <sz val="12"/>
         <rFont val="新細明體"/>
-        <family val="1"/>
         <charset val="136"/>
       </rPr>
       <t>)]/(6)</t>
@@ -201,7 +192,6 @@
       <rPr>
         <sz val="12"/>
         <rFont val="新細明體"/>
-        <family val="1"/>
         <charset val="136"/>
       </rPr>
       <t>2</t>
@@ -210,7 +200,6 @@
       <rPr>
         <sz val="12"/>
         <rFont val="新細明體"/>
-        <family val="1"/>
         <charset val="136"/>
       </rPr>
       <t>)+(3)]/(4)</t>
@@ -225,7 +214,6 @@
       <rPr>
         <sz val="12"/>
         <rFont val="新細明體"/>
-        <family val="1"/>
         <charset val="136"/>
       </rPr>
       <t>1</t>
@@ -234,7 +222,6 @@
       <rPr>
         <sz val="12"/>
         <rFont val="新細明體"/>
-        <family val="1"/>
         <charset val="136"/>
       </rPr>
       <t>)/(4)</t>
@@ -345,13 +332,11 @@
     <font>
       <sz val="12"/>
       <name val="新細明體"/>
-      <family val="1"/>
       <charset val="136"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="新細明體"/>
-      <family val="1"/>
       <charset val="136"/>
     </font>
     <font>
@@ -492,6 +477,52 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -512,78 +543,6 @@
       <top style="hair">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top/>
       <bottom style="hair">
         <color indexed="64"/>
       </bottom>
@@ -595,83 +554,20 @@
       <top style="hair">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="hair">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="thin">
+      <right style="hair">
         <color indexed="64"/>
       </right>
       <top style="hair">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
       <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -694,6 +590,95 @@
       <right/>
       <top/>
       <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -764,68 +749,68 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="177" fontId="4" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="177" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -886,7 +871,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.68794415591668057"/>
+          <c:x val="0.68794421534825934"/>
           <c:y val="1.580135440180587E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -929,11 +914,14 @@
             <c:idx val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:blipFill dpi="0" rotWithShape="0">
-                <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-                <a:srcRect/>
-                <a:tile tx="0" ty="0" sx="100000" sy="100000" flip="none" algn="tl"/>
-              </a:blipFill>
+              <a:pattFill prst="narHorz">
+                <a:fgClr>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFF00" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="13"/>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FF0000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="10"/>
+                </a:bgClr>
+              </a:pattFill>
               <a:ln w="12700">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
@@ -943,7 +931,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000000-B2BE-48EE-889E-DBBB8A421D1E}"/>
+                <c16:uniqueId val="{00000000-675C-4C10-B27A-5F45ACF9A74C}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -951,11 +939,14 @@
             <c:idx val="1"/>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:blipFill dpi="0" rotWithShape="0">
-                <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-                <a:srcRect/>
-                <a:tile tx="0" ty="0" sx="100000" sy="100000" flip="none" algn="tl"/>
-              </a:blipFill>
+              <a:pattFill prst="sphere">
+                <a:fgClr>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="3366FF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="48"/>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+                </a:bgClr>
+              </a:pattFill>
               <a:ln w="12700">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
@@ -965,7 +956,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-B2BE-48EE-889E-DBBB8A421D1E}"/>
+                <c16:uniqueId val="{00000001-675C-4C10-B27A-5F45ACF9A74C}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -985,7 +976,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000002-B2BE-48EE-889E-DBBB8A421D1E}"/>
+                <c16:uniqueId val="{00000002-675C-4C10-B27A-5F45ACF9A74C}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1005,7 +996,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-B2BE-48EE-889E-DBBB8A421D1E}"/>
+                <c16:uniqueId val="{00000003-675C-4C10-B27A-5F45ACF9A74C}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1025,7 +1016,32 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000004-B2BE-48EE-889E-DBBB8A421D1E}"/>
+                <c16:uniqueId val="{00000004-675C-4C10-B27A-5F45ACF9A74C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:pattFill prst="solidDmnd">
+                <a:fgClr>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FF8080" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="29"/>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-675C-4C10-B27A-5F45ACF9A74C}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1072,7 +1088,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000000-B2BE-48EE-889E-DBBB8A421D1E}"/>
+                  <c16:uniqueId val="{00000000-675C-4C10-B27A-5F45ACF9A74C}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1080,8 +1096,8 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-5.7283669328567981E-2"/>
-                  <c:y val="-1.8609220122879674E-2"/>
+                  <c:x val="1.8366459107474559E-2"/>
+                  <c:y val="1.7508161366962316E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="0.00%" sourceLinked="0"/>
@@ -1118,7 +1134,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000001-B2BE-48EE-889E-DBBB8A421D1E}"/>
+                  <c16:uniqueId val="{00000001-675C-4C10-B27A-5F45ACF9A74C}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1126,8 +1142,8 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.19387487202397571"/>
-                  <c:y val="5.5882879199919425E-2"/>
+                  <c:x val="3.1227049935498713E-2"/>
+                  <c:y val="5.5882879199919411E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="0.00%" sourceLinked="0"/>
@@ -1164,7 +1180,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000002-B2BE-48EE-889E-DBBB8A421D1E}"/>
+                  <c16:uniqueId val="{00000002-675C-4C10-B27A-5F45ACF9A74C}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1172,8 +1188,8 @@
               <c:idx val="3"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="5.0139498520131789E-2"/>
-                  <c:y val="7.3189124497135258E-2"/>
+                  <c:x val="-2.551061730971857E-2"/>
+                  <c:y val="4.0081524798113555E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="0.00%" sourceLinked="0"/>
@@ -1210,7 +1226,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-B2BE-48EE-889E-DBBB8A421D1E}"/>
+                  <c16:uniqueId val="{00000003-675C-4C10-B27A-5F45ACF9A74C}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1256,7 +1272,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000004-B2BE-48EE-889E-DBBB8A421D1E}"/>
+                  <c16:uniqueId val="{00000004-675C-4C10-B27A-5F45ACF9A74C}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1346,16 +1362,16 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-B2BE-48EE-889E-DBBB8A421D1E}"/>
+              <c16:uniqueId val="{00000006-675C-4C10-B27A-5F45ACF9A74C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
-          <c:showCatName val="0"/>
+          <c:showCatName val="1"/>
           <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
+          <c:showPercent val="1"/>
           <c:showBubbleSize val="0"/>
           <c:showLeaderLines val="1"/>
         </c:dLbls>
@@ -1374,9 +1390,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.6595753615904395"/>
+          <c:x val="0.65957538172565067"/>
           <c:y val="0.12189616252821671"/>
-          <c:w val="0.26241164535284145"/>
+          <c:w val="0.26241171100912986"/>
           <c:h val="0.34537246049661402"/>
         </c:manualLayout>
       </c:layout>
@@ -1467,10 +1483,10 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2050" name="圖表 1">
+        <xdr:cNvPr id="2049" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10537BE2-BBE2-4A53-8587-759B90101BD8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDA6BFBF-F34D-4E11-B8A9-D8F7BD5CC5D8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1877,7 +1893,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A8" activeCellId="8" sqref="A5 C5 A6:D6 E5:E6 G5:G6 H5:H6 A7:C7 G7 A8:E8"/>
     </sheetView>
   </sheetViews>
@@ -1907,30 +1923,30 @@
       <c r="H1" s="19"/>
     </row>
     <row r="2" spans="1:8" s="17" customFormat="1" ht="21" customHeight="1">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30" t="s">
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="30"/>
+      <c r="H2" s="27"/>
     </row>
     <row r="3" spans="1:8" s="7" customFormat="1" ht="21" customHeight="1">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30" t="s">
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="40"/>
+      <c r="F3" s="28"/>
       <c r="G3" s="15" t="s">
         <v>10</v>
       </c>
@@ -1939,16 +1955,16 @@
       </c>
     </row>
     <row r="4" spans="1:8" s="7" customFormat="1" ht="21" customHeight="1">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30" t="s">
+      <c r="B4" s="27"/>
+      <c r="C4" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
       <c r="G4" s="15"/>
       <c r="H4" s="15"/>
     </row>
@@ -1967,47 +1983,47 @@
       <c r="D5" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="36">
+      <c r="E5" s="43">
         <f>SUM('30731'!C2)</f>
         <v>0</v>
       </c>
-      <c r="F5" s="41" t="s">
+      <c r="F5" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="43">
+      <c r="G5" s="31">
         <f>SUM('30731'!D2)</f>
         <v>0</v>
       </c>
-      <c r="H5" s="38">
+      <c r="H5" s="25">
         <f>SUM('30731'!E2)</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="7" customFormat="1" ht="21" customHeight="1">
-      <c r="A6" s="31">
+      <c r="A6" s="38">
         <f>SUM('30731'!B2)</f>
         <v>0</v>
       </c>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="39"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="26"/>
     </row>
     <row r="7" spans="1:8" s="7" customFormat="1" ht="21" customHeight="1">
-      <c r="A7" s="34">
+      <c r="A7" s="41">
         <f>SUM(A6,E5)</f>
         <v>0</v>
       </c>
-      <c r="B7" s="35"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="25" t="s">
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="26"/>
-      <c r="F7" s="27"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="35"/>
       <c r="G7" s="24">
         <f>SUM(G5,H5)</f>
         <v>0</v>
@@ -2017,14 +2033,14 @@
       </c>
     </row>
     <row r="8" spans="1:8" s="7" customFormat="1" ht="21" customHeight="1">
-      <c r="A8" s="28">
+      <c r="A8" s="36">
         <f>SUM(A7,G7)</f>
         <v>0</v>
       </c>
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
       <c r="F8" s="11" t="s">
         <v>16</v>
       </c>
@@ -2223,13 +2239,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="G2:H2"/>
     <mergeCell ref="D7:F7"/>
     <mergeCell ref="A8:E8"/>
     <mergeCell ref="C4:D4"/>
@@ -2238,6 +2247,13 @@
     <mergeCell ref="E5:E6"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="A4:B4"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G2:H2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -2253,7 +2269,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView zoomScale="75" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A2" sqref="A2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.625" defaultRowHeight="16.5"/>

--- a/PhoenixCI/Excel_Template/30730.xlsx
+++ b/PhoenixCI/Excel_Template/30730.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KJSOFT\Desktop\update_template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\PhoenixCI_TFS\PhoenixCI_Kj\PhoenixCI\Excel_Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4CC215F4-6E2C-4B34-9A45-C0BB454C7E48}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{503C2050-D8D5-4707-B3CF-366E84169EBF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="90" windowWidth="6765" windowHeight="4245"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="30730" sheetId="1" r:id="rId1"/>
@@ -24,6 +24,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -110,6 +111,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="新細明體"/>
+        <family val="1"/>
         <charset val="136"/>
       </rPr>
       <t>1</t>
@@ -118,6 +120,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="新細明體"/>
+        <family val="1"/>
         <charset val="136"/>
       </rPr>
       <t>)/(6)</t>
@@ -132,6 +135,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="新細明體"/>
+        <family val="1"/>
         <charset val="136"/>
       </rPr>
       <t>2</t>
@@ -140,6 +144,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="新細明體"/>
+        <family val="1"/>
         <charset val="136"/>
       </rPr>
       <t>)+(3)]/(6)</t>
@@ -154,6 +159,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="新細明體"/>
+        <family val="1"/>
         <charset val="136"/>
       </rPr>
       <t>1</t>
@@ -162,6 +168,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="新細明體"/>
+        <family val="1"/>
         <charset val="136"/>
       </rPr>
       <t>)+(</t>
@@ -170,6 +177,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="新細明體"/>
+        <family val="1"/>
         <charset val="136"/>
       </rPr>
       <t>5</t>
@@ -178,6 +186,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="新細明體"/>
+        <family val="1"/>
         <charset val="136"/>
       </rPr>
       <t>)]/(6)</t>
@@ -192,6 +201,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="新細明體"/>
+        <family val="1"/>
         <charset val="136"/>
       </rPr>
       <t>2</t>
@@ -200,6 +210,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="新細明體"/>
+        <family val="1"/>
         <charset val="136"/>
       </rPr>
       <t>)+(3)]/(4)</t>
@@ -214,6 +225,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="新細明體"/>
+        <family val="1"/>
         <charset val="136"/>
       </rPr>
       <t>1</t>
@@ -222,6 +234,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="新細明體"/>
+        <family val="1"/>
         <charset val="136"/>
       </rPr>
       <t>)/(4)</t>
@@ -332,11 +345,13 @@
     <font>
       <sz val="12"/>
       <name val="新細明體"/>
+      <family val="1"/>
       <charset val="136"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="新細明體"/>
+      <family val="1"/>
       <charset val="136"/>
     </font>
     <font>
@@ -477,6 +492,104 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="hair">
@@ -501,28 +614,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -530,7 +621,7 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="hair">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -568,6 +659,19 @@
         <color indexed="64"/>
       </top>
       <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -590,95 +694,6 @@
       <right/>
       <top/>
       <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -749,68 +764,68 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="177" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="177" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -871,7 +886,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.68794421534825934"/>
+          <c:x val="0.68794415591668057"/>
           <c:y val="1.580135440180587E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -914,14 +929,11 @@
             <c:idx val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:pattFill prst="narHorz">
-                <a:fgClr>
-                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFF00" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="13"/>
-                </a:fgClr>
-                <a:bgClr>
-                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FF0000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="10"/>
-                </a:bgClr>
-              </a:pattFill>
+              <a:blipFill dpi="0" rotWithShape="0">
+                <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+                <a:srcRect/>
+                <a:tile tx="0" ty="0" sx="100000" sy="100000" flip="none" algn="tl"/>
+              </a:blipFill>
               <a:ln w="12700">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
@@ -931,7 +943,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000000-675C-4C10-B27A-5F45ACF9A74C}"/>
+                <c16:uniqueId val="{00000000-B2BE-48EE-889E-DBBB8A421D1E}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -939,14 +951,11 @@
             <c:idx val="1"/>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:pattFill prst="sphere">
-                <a:fgClr>
-                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="3366FF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="48"/>
-                </a:fgClr>
-                <a:bgClr>
-                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
-                </a:bgClr>
-              </a:pattFill>
+              <a:blipFill dpi="0" rotWithShape="0">
+                <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+                <a:srcRect/>
+                <a:tile tx="0" ty="0" sx="100000" sy="100000" flip="none" algn="tl"/>
+              </a:blipFill>
               <a:ln w="12700">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
@@ -956,7 +965,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-675C-4C10-B27A-5F45ACF9A74C}"/>
+                <c16:uniqueId val="{00000001-B2BE-48EE-889E-DBBB8A421D1E}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -976,7 +985,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000002-675C-4C10-B27A-5F45ACF9A74C}"/>
+                <c16:uniqueId val="{00000002-B2BE-48EE-889E-DBBB8A421D1E}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -996,7 +1005,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-675C-4C10-B27A-5F45ACF9A74C}"/>
+                <c16:uniqueId val="{00000003-B2BE-48EE-889E-DBBB8A421D1E}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1016,32 +1025,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000004-675C-4C10-B27A-5F45ACF9A74C}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="5"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:pattFill prst="solidDmnd">
-                <a:fgClr>
-                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FF8080" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="29"/>
-                </a:fgClr>
-                <a:bgClr>
-                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
-                </a:bgClr>
-              </a:pattFill>
-              <a:ln w="12700">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-675C-4C10-B27A-5F45ACF9A74C}"/>
+                <c16:uniqueId val="{00000004-B2BE-48EE-889E-DBBB8A421D1E}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1088,7 +1072,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000000-675C-4C10-B27A-5F45ACF9A74C}"/>
+                  <c16:uniqueId val="{00000000-B2BE-48EE-889E-DBBB8A421D1E}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1096,8 +1080,8 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="1.8366459107474559E-2"/>
-                  <c:y val="1.7508161366962316E-2"/>
+                  <c:x val="-5.7283669328567981E-2"/>
+                  <c:y val="-1.8609220122879674E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="0.00%" sourceLinked="0"/>
@@ -1134,7 +1118,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000001-675C-4C10-B27A-5F45ACF9A74C}"/>
+                  <c16:uniqueId val="{00000001-B2BE-48EE-889E-DBBB8A421D1E}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1142,8 +1126,8 @@
               <c:idx val="2"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="3.1227049935498713E-2"/>
-                  <c:y val="5.5882879199919411E-2"/>
+                  <c:x val="0.19387487202397571"/>
+                  <c:y val="5.5882879199919425E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="0.00%" sourceLinked="0"/>
@@ -1180,7 +1164,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000002-675C-4C10-B27A-5F45ACF9A74C}"/>
+                  <c16:uniqueId val="{00000002-B2BE-48EE-889E-DBBB8A421D1E}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1188,8 +1172,8 @@
               <c:idx val="3"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-2.551061730971857E-2"/>
-                  <c:y val="4.0081524798113555E-2"/>
+                  <c:x val="5.0139498520131789E-2"/>
+                  <c:y val="7.3189124497135258E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="0.00%" sourceLinked="0"/>
@@ -1226,7 +1210,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-675C-4C10-B27A-5F45ACF9A74C}"/>
+                  <c16:uniqueId val="{00000003-B2BE-48EE-889E-DBBB8A421D1E}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1272,7 +1256,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000004-675C-4C10-B27A-5F45ACF9A74C}"/>
+                  <c16:uniqueId val="{00000004-B2BE-48EE-889E-DBBB8A421D1E}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1362,16 +1346,16 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-675C-4C10-B27A-5F45ACF9A74C}"/>
+              <c16:uniqueId val="{00000005-B2BE-48EE-889E-DBBB8A421D1E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
-          <c:showCatName val="1"/>
+          <c:showCatName val="0"/>
           <c:showSerName val="0"/>
-          <c:showPercent val="1"/>
+          <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
           <c:showLeaderLines val="1"/>
         </c:dLbls>
@@ -1390,9 +1374,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.65957538172565067"/>
+          <c:x val="0.6595753615904395"/>
           <c:y val="0.12189616252821671"/>
-          <c:w val="0.26241171100912986"/>
+          <c:w val="0.26241164535284145"/>
           <c:h val="0.34537246049661402"/>
         </c:manualLayout>
       </c:layout>
@@ -1483,10 +1467,10 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2049" name="圖表 1">
+        <xdr:cNvPr id="2050" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDA6BFBF-F34D-4E11-B8A9-D8F7BD5CC5D8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10537BE2-BBE2-4A53-8587-759B90101BD8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1893,7 +1877,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A8" activeCellId="8" sqref="A5 C5 A6:D6 E5:E6 G5:G6 H5:H6 A7:C7 G7 A8:E8"/>
     </sheetView>
   </sheetViews>
@@ -1923,30 +1907,30 @@
       <c r="H1" s="19"/>
     </row>
     <row r="2" spans="1:8" s="17" customFormat="1" ht="21" customHeight="1">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27" t="s">
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="27"/>
+      <c r="H2" s="30"/>
     </row>
     <row r="3" spans="1:8" s="7" customFormat="1" ht="21" customHeight="1">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27" t="s">
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="28"/>
+      <c r="F3" s="40"/>
       <c r="G3" s="15" t="s">
         <v>10</v>
       </c>
@@ -1955,16 +1939,16 @@
       </c>
     </row>
     <row r="4" spans="1:8" s="7" customFormat="1" ht="21" customHeight="1">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27" t="s">
+      <c r="B4" s="30"/>
+      <c r="C4" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
       <c r="G4" s="15"/>
       <c r="H4" s="15"/>
     </row>
@@ -1983,47 +1967,47 @@
       <c r="D5" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="43">
+      <c r="E5" s="36">
         <f>SUM('30731'!C2)</f>
         <v>0</v>
       </c>
-      <c r="F5" s="29" t="s">
+      <c r="F5" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="31">
+      <c r="G5" s="43">
         <f>SUM('30731'!D2)</f>
         <v>0</v>
       </c>
-      <c r="H5" s="25">
+      <c r="H5" s="38">
         <f>SUM('30731'!E2)</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="7" customFormat="1" ht="21" customHeight="1">
-      <c r="A6" s="38">
+      <c r="A6" s="31">
         <f>SUM('30731'!B2)</f>
         <v>0</v>
       </c>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="26"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="39"/>
     </row>
     <row r="7" spans="1:8" s="7" customFormat="1" ht="21" customHeight="1">
-      <c r="A7" s="41">
+      <c r="A7" s="34">
         <f>SUM(A6,E5)</f>
         <v>0</v>
       </c>
-      <c r="B7" s="42"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="33" t="s">
+      <c r="B7" s="35"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="34"/>
-      <c r="F7" s="35"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="27"/>
       <c r="G7" s="24">
         <f>SUM(G5,H5)</f>
         <v>0</v>
@@ -2033,14 +2017,14 @@
       </c>
     </row>
     <row r="8" spans="1:8" s="7" customFormat="1" ht="21" customHeight="1">
-      <c r="A8" s="36">
+      <c r="A8" s="28">
         <f>SUM(A7,G7)</f>
         <v>0</v>
       </c>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
       <c r="F8" s="11" t="s">
         <v>16</v>
       </c>
@@ -2239,6 +2223,13 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G2:H2"/>
     <mergeCell ref="D7:F7"/>
     <mergeCell ref="A8:E8"/>
     <mergeCell ref="C4:D4"/>
@@ -2247,13 +2238,6 @@
     <mergeCell ref="E5:E6"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="A4:B4"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="G2:H2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -2269,7 +2253,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView zoomScale="75" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.625" defaultRowHeight="16.5"/>
